--- a/Code/Evaluation/SVM_Classifier_Predictions_Individual_Features_PCA_Classification_Report.xlsx
+++ b/Code/Evaluation/SVM_Classifier_Predictions_Individual_Features_PCA_Classification_Report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1971326164874552</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3244837758112094</v>
+        <v>0.8961748633879781</v>
       </c>
       <c r="E2" t="n">
         <v>279</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3605150214592274</v>
+        <v>0.8690807799442897</v>
       </c>
       <c r="E3" t="n">
         <v>189</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7718309859154929</v>
+        <v>0.8956916099773242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6213151927437641</v>
+        <v>0.8956916099773242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6884422110552764</v>
+        <v>0.8956916099773241</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5524271844660195</v>
+        <v>0.9046052631578947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9810344827586207</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7068322981366459</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="E5" t="n">
         <v>580</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7988675728984084</v>
+        <v>0.9072637607674648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5054261285530156</v>
+        <v>0.8877711818876604</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5200683266155898</v>
+        <v>0.8967182948088794</v>
       </c>
       <c r="E7" t="n">
         <v>1489</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7366986720538041</v>
+        <v>0.9048397224642217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6312961719274681</v>
+        <v>0.9046339825386165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5857851312973492</v>
+        <v>0.9041813910891562</v>
       </c>
       <c r="E8" t="n">
         <v>1489</v>
